--- a/lab1/venher_fb-22_zahorodnii_fb-22_cp1/tables/double_bigram_frequencies_space.xlsx
+++ b/lab1/venher_fb-22_zahorodnii_fb-22_cp1/tables/double_bigram_frequencies_space.xlsx
@@ -607,85 +607,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.042242071143444e-05</v>
+        <v>1.602044208409931e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005784443494846113</v>
+        <v>0.0008891345356675117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003061586083983866</v>
+        <v>0.004706004862204172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0008246740387922499</v>
+        <v>0.001267617479904358</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001762691902821349</v>
+        <v>0.002709457267473296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009132646148394426</v>
+        <v>0.001403791237619202</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001009672006420211</v>
+        <v>0.001551980326897121</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003684325721492074</v>
+        <v>0.005663226276729106</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001185550355925667</v>
+        <v>0.0001822325287066297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006657321229428747</v>
+        <v>0.001023305738121844</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004102525352538381</v>
+        <v>0.006306046515353591</v>
       </c>
       <c r="N2" t="n">
-        <v>0.008395259883060439</v>
+        <v>0.012904466098742</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002621238808925761</v>
+        <v>0.004029141184150977</v>
       </c>
       <c r="P2" t="n">
-        <v>0.004675758491667275</v>
+        <v>0.007187170829979053</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.211210355717219e-06</v>
+        <v>8.010221042049655e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0007517170938122088</v>
+        <v>0.001155474385315663</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002605605177858609</v>
+        <v>0.004005110521024828</v>
       </c>
       <c r="T2" t="n">
-        <v>0.003576193106610942</v>
+        <v>0.005497014190106576</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004953255443109216</v>
+        <v>0.007613715100468197</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001133438252368495</v>
+        <v>0.00017422230766458</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0005823527572513992</v>
+        <v>0.000895142201449049</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0009132646148394426</v>
+        <v>0.001403791237619202</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.295694498004106e-05</v>
+        <v>0.0001121430945886952</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0006813657540100264</v>
+        <v>0.001047336401247992</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00134840067954183</v>
+        <v>0.002072644694630348</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0002032372038729715</v>
+        <v>0.0003123986206399366</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0007334778575671985</v>
+        <v>0.001127438611668489</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0024362408412978</v>
+        <v>0.003744778337158214</v>
       </c>
     </row>
     <row r="3">
@@ -713,103 +713,103 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009979467831198474</v>
+        <v>0.001533957329552509</v>
       </c>
       <c r="C3" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>7.556255015789967e-05</v>
+        <v>0.00011614820510972</v>
       </c>
       <c r="E3" t="n">
-        <v>1.042242071143444e-05</v>
+        <v>1.602044208409931e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>1.433082847822235e-05</v>
+        <v>2.202810786563655e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001920331016081795</v>
+        <v>0.002951766453995298</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.816815533575829e-06</v>
+        <v>1.201533156307448e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0007243582394446934</v>
+        <v>0.001113420724844902</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0002149624271733353</v>
+        <v>0.0003304216179845483</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0008285824465590378</v>
+        <v>0.001273625145685895</v>
       </c>
       <c r="O3" t="n">
-        <v>4.429528802359636e-05</v>
+        <v>6.808687885742207e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002371100711851335</v>
+        <v>0.0003644650574132593</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00213659624584406</v>
+        <v>0.003284190627240359</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001133438252368495</v>
+        <v>0.0017422230766458</v>
       </c>
       <c r="T3" t="n">
-        <v>5.080930096824288e-05</v>
+        <v>7.809965515998414e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.00105005888667702</v>
+        <v>0.001614059539973005</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>5.341490614610149e-05</v>
+        <v>8.210476568100896e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.211210355717219e-06</v>
+        <v>8.010221042049655e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.084484142286888e-05</v>
+        <v>3.204088416819862e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0002045400064619008</v>
+        <v>0.000314401175900449</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.000106829812292203</v>
+        <v>0.0001642095313620179</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.003529292213409487</v>
+        <v>0.005424922200728129</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.387286731216192e-05</v>
+        <v>5.206643677332276e-05</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0004116856181016603</v>
+        <v>0.0006328074623219228</v>
       </c>
     </row>
     <row r="4">
@@ -819,103 +819,103 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005329765391309786</v>
+        <v>0.008192453570756285</v>
       </c>
       <c r="C4" t="n">
-        <v>1.042242071143444e-05</v>
+        <v>1.602044208409931e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>3.257006472323262e-05</v>
+        <v>5.006388151281034e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>2.996445954537401e-05</v>
+        <v>4.605877099178552e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002774969514419419</v>
+        <v>0.0004265442704891442</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004258861663209897</v>
+        <v>0.006546353146615081</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0005263322459274391</v>
+        <v>0.0008090323252470152</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002864862893055541</v>
+        <v>0.004403619017866798</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001185550355925667</v>
+        <v>0.0001822325287066297</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0008624553138711997</v>
+        <v>0.001325691582459218</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0001211606407704253</v>
+        <v>0.0001862376392276545</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001134741054957424</v>
+        <v>0.001744225631906313</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006687285688974121</v>
+        <v>0.01027911615221022</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000213659624584406</v>
+        <v>0.0003284190627240359</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0005654163235953183</v>
+        <v>0.0008691089830623876</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00284792645939946</v>
+        <v>0.004377585799480136</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001993287961061836</v>
+        <v>0.0003063909548583993</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0006917881747214608</v>
+        <v>0.001063356843332092</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>4.559809061252567e-05</v>
+        <v>7.008943411793448e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.433082847822235e-05</v>
+        <v>2.202810786563655e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.038688025680845e-05</v>
+        <v>6.207921307588483e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.001056572899621666</v>
+        <v>0.001624072316275568</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.211210355717219e-06</v>
+        <v>8.010221042049655e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.084484142286888e-05</v>
+        <v>3.204088416819862e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.00245448007754281</v>
+        <v>0.003772814110805388</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0001654559287940217</v>
+        <v>0.0002543245180850766</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0001928147831615371</v>
+        <v>0.0002963781785558372</v>
       </c>
     </row>
     <row r="5">
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0009445318769737459</v>
+        <v>0.0014518525638715</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4.168968284573775e-05</v>
+        <v>6.408176833639724e-05</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008924197734165737</v>
+        <v>0.001371750353451003</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004716145371924083</v>
+        <v>0.0007249250043054939</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,40 +952,40 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0007399918705118451</v>
+        <v>0.001137451387971051</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>6.904853721325315e-05</v>
+        <v>0.0001061354288071579</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001502131385035488</v>
+        <v>0.002308946215370813</v>
       </c>
       <c r="O5" t="n">
-        <v>7.816815533575829e-06</v>
+        <v>1.201533156307448e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0002462296893076386</v>
+        <v>0.0003784829442368462</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.008426527145194743</v>
+        <v>0.01295252742499429</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001240268064660698</v>
+        <v>0.001906432608007818</v>
       </c>
       <c r="T5" t="n">
-        <v>4.429528802359636e-05</v>
+        <v>6.808687885742207e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.433082847822235e-05</v>
+        <v>2.202810786563655e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0006631265177650161</v>
+        <v>0.001019300627600819</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.345044660072749e-05</v>
+        <v>3.604599468922345e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1031,103 +1031,103 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004030871210147269</v>
+        <v>0.006195905976025409</v>
       </c>
       <c r="C6" t="n">
-        <v>3.387286731216192e-05</v>
+        <v>5.206643677332276e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0007960123818358052</v>
+        <v>0.001223561264173085</v>
       </c>
       <c r="E6" t="n">
-        <v>7.816815533575829e-06</v>
+        <v>1.201533156307448e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>2.605605177858609e-05</v>
+        <v>4.005110521024828e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004167665481984846</v>
+        <v>0.006406174278379212</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.172522330036374e-05</v>
+        <v>1.802299734461172e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002334622239361314</v>
+        <v>0.003588579026838246</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0001706671391497389</v>
+        <v>0.0002623347391271262</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0006227396375082077</v>
+        <v>0.0009572214145249338</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001224634433593546</v>
+        <v>0.0001882401944881669</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001490406161735125</v>
+        <v>0.002290923218026202</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003508447371986618</v>
+        <v>0.005392881316559931</v>
       </c>
       <c r="R6" t="n">
-        <v>7.556255015789967e-05</v>
+        <v>0.00011614820510972</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001830437637445673</v>
+        <v>0.002813590141019941</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0003061586083983866</v>
+        <v>0.0004706004862204172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0002553493074301437</v>
+        <v>0.0003925008310604331</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001691037760430237</v>
+        <v>0.002599316728145113</v>
       </c>
       <c r="W6" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>3.126726213430332e-05</v>
+        <v>4.806132625229793e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0001758783495054561</v>
+        <v>0.0002703449601691759</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.475324918965679e-05</v>
+        <v>3.804854994973586e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.000106829812292203</v>
+        <v>0.0001642095313620179</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0001628503236161631</v>
+        <v>0.0002503194075640517</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0005263322459274391</v>
+        <v>0.0008090323252470152</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0003908407766787914</v>
+        <v>0.0006007665781537242</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.992891909074802e-05</v>
+        <v>9.211754198357103e-05</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0004325304595245291</v>
+        <v>0.0006648483464901214</v>
       </c>
     </row>
     <row r="7">
@@ -1137,85 +1137,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.387286731216192e-05</v>
+        <v>5.206643677332276e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00110477659541205</v>
+        <v>0.001698166860914527</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001413540808988296</v>
+        <v>0.002172772457655969</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003350808258726172</v>
+        <v>0.005150572130037928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002403670776574567</v>
+        <v>0.003694714455645403</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001513856608335852</v>
+        <v>0.002326969212715425</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0009666795209855441</v>
+        <v>0.001485896003300211</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00110477659541205</v>
+        <v>0.001698166860914527</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001550335080825873</v>
+        <v>0.0002383040760009772</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00234243905489489</v>
+        <v>0.00360059435840132</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0009588627054519683</v>
+        <v>0.001473880671737137</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005826133177691851</v>
+        <v>0.008955427125011515</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003753374258705327</v>
+        <v>0.005769361705536265</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006738094989942364</v>
+        <v>0.0103572158073702</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0003048558058094573</v>
+        <v>0.0004685979309599048</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0008507300905708359</v>
+        <v>0.001307668585114606</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006392852303876098</v>
+        <v>0.009826538663334414</v>
       </c>
       <c r="T7" t="n">
-        <v>0.003556651067777002</v>
+        <v>0.00546697586119889</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003531897818587345</v>
+        <v>0.005428927311249154</v>
       </c>
       <c r="V7" t="n">
-        <v>6.904853721325315e-05</v>
+        <v>0.0001061354288071579</v>
       </c>
       <c r="W7" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0008650609190490583</v>
+        <v>0.001329696692980243</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.000256652110019073</v>
+        <v>0.0003945033863209455</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0008689693268158462</v>
+        <v>0.00133570435876178</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.000683971359187885</v>
+        <v>0.001051341511769017</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0006292536504528542</v>
+        <v>0.0009672341908274959</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0003309118575880434</v>
+        <v>0.0005086490361701532</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0003491510938330537</v>
+        <v>0.0005366848098173269</v>
       </c>
     </row>
     <row r="8">
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1279,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.211210355717219e-06</v>
+        <v>8.010221042049655e-06</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1349,52 +1349,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001160797106736011</v>
+        <v>0.001784276737116561</v>
       </c>
       <c r="C9" t="n">
-        <v>6.123172167967732e-05</v>
+        <v>9.412009724408345e-05</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.693643365608096e-05</v>
+        <v>2.603321838666138e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006996049902550367</v>
+        <v>0.001075372174895166</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003427673611473001</v>
+        <v>0.00526872289040816</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.433082847822235e-05</v>
+        <v>2.202810786563655e-05</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00123635965689391</v>
+        <v>0.001900424942226281</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>7.686535274682898e-05</v>
+        <v>0.0001181507603702324</v>
       </c>
       <c r="N9" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001055270097032737</v>
+        <v>0.001622069761015055</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.732331391288941e-05</v>
+        <v>8.811243146254621e-05</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1403,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.954203883393957e-05</v>
+        <v>3.003832890768621e-05</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001810895598611733</v>
+        <v>0.0002783551812112255</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.341490614610149e-05</v>
+        <v>8.210476568100896e-05</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.559809061252567e-05</v>
+        <v>7.008943411793448e-05</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.387286731216192e-05</v>
+        <v>5.206643677332276e-05</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1455,67 +1455,67 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004978008692298874</v>
+        <v>0.007651763650417934</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001211606407704253</v>
+        <v>0.0001862376392276545</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007295694498004107</v>
+        <v>0.001121430945886952</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003817211585562863</v>
+        <v>0.0005867486913301372</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007009077928439659</v>
+        <v>0.001077374730155679</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002410184789519214</v>
+        <v>0.0003704727231947966</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001771811520943854</v>
+        <v>0.0002723475154296883</v>
       </c>
       <c r="J10" t="n">
-        <v>6.253452426860663e-05</v>
+        <v>9.612265250459586e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000333517462765902</v>
+        <v>0.000512654146691178</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0001185550355925667</v>
+        <v>0.0001822325287066297</v>
       </c>
       <c r="N10" t="n">
-        <v>0.000226687650473699</v>
+        <v>0.00034844461532916</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0002423212815408507</v>
+        <v>0.000372475278455309</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001530793041991933</v>
+        <v>0.002353002431102086</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0005185154303938632</v>
+        <v>0.0007970169936839407</v>
       </c>
       <c r="R10" t="n">
-        <v>2.605605177858609e-05</v>
+        <v>4.005110521024828e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0001758783495054561</v>
+        <v>0.0002703449601691759</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0001328858640707891</v>
+        <v>0.0002042606365722662</v>
       </c>
       <c r="U10" t="n">
-        <v>7.816815533575829e-06</v>
+        <v>1.201533156307448e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0002840109643865884</v>
+        <v>0.0004365570467917062</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1524,34 +1524,34 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.042242071143444e-05</v>
+        <v>1.602044208409931e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.172522330036374e-05</v>
+        <v>1.802299734461172e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0004794313527259842</v>
+        <v>0.0007369403358685683</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0007673507248793605</v>
+        <v>0.001179505048441812</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.904853721325315e-05</v>
+        <v>0.0001061354288071579</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0004755229449591962</v>
+        <v>0.000730932670087031</v>
       </c>
     </row>
     <row r="11">
@@ -1561,85 +1561,85 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.165414239111176e-05</v>
+        <v>0.0001101405393281828</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003739043430227104</v>
+        <v>0.0005747333597670627</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002337227844539173</v>
+        <v>0.00359258413735927</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000500276194148853</v>
+        <v>0.0007689812200367669</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001578996737782317</v>
+        <v>0.002427096975741045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002279904530626283</v>
+        <v>0.003504471705896724</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002957361876869522</v>
+        <v>0.0004545800441363179</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001722305022564541</v>
+        <v>0.002647378054397411</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0006474928866978645</v>
+        <v>0.0009952699644746696</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001288471760451082</v>
+        <v>0.001980527152646777</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001737938653631692</v>
+        <v>0.00267140871752356</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004389141922102827</v>
+        <v>0.006746608672666322</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002613421993392185</v>
+        <v>0.004017125852587902</v>
       </c>
       <c r="P11" t="n">
-        <v>0.003045952452916714</v>
+        <v>0.004681974199078023</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0002110540194065474</v>
+        <v>0.0003244139522030111</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0001654559287940217</v>
+        <v>0.0002543245180850766</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0005823527572513992</v>
+        <v>0.000895142201449049</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002708526582384024</v>
+        <v>0.004163312386605308</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003211408381710736</v>
+        <v>0.0049362987171631</v>
       </c>
       <c r="V11" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>3.778127507894984e-05</v>
+        <v>5.807410255486e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001493011766912983</v>
+        <v>0.002294928328547226</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001077417741044535</v>
+        <v>0.001656113200443766</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001074812135866676</v>
+        <v>0.001652108089922741</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0003491510938330537</v>
+        <v>0.0005366848098173269</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.000119857838181496</v>
+        <v>0.0001842350839671421</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.000316581029109821</v>
+        <v>0.0004866209283045166</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.001496920174679771</v>
+        <v>0.002300935994328763</v>
       </c>
     </row>
     <row r="12">
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0001641531262050924</v>
+        <v>0.0002523219628245641</v>
       </c>
       <c r="G12" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1694,55 +1694,55 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>6.123172167967732e-05</v>
+        <v>9.412009724408345e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0001380970744265063</v>
+        <v>0.0002122708576143159</v>
       </c>
       <c r="O12" t="n">
-        <v>3.647847249002053e-05</v>
+        <v>5.607154729434759e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0003726015404337811</v>
+        <v>0.0005727308045065504</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.693643365608096e-05</v>
+        <v>2.603321838666138e-05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>1.954203883393957e-05</v>
+        <v>3.003832890768621e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0005354518640499443</v>
+        <v>0.000823050212070602</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0002983417928648108</v>
+        <v>0.0004585851546573428</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.429528802359636e-05</v>
+        <v>6.808687885742207e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.253452426860663e-05</v>
+        <v>9.612265250459586e-05</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.207656310254619e-05</v>
+        <v>0.0001261609814122821</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1773,82 +1773,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.006850136012590284</v>
+        <v>0.01052943555977427</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001928147831615371</v>
+        <v>0.0002963781785558372</v>
       </c>
       <c r="E13" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004559809061252567</v>
+        <v>0.0007008943411793448</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002359375488550971</v>
+        <v>0.003626627576787981</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.605605177858609e-05</v>
+        <v>4.005110521024828e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0003569679093666295</v>
+        <v>0.0005487001413804014</v>
       </c>
       <c r="O13" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001749663876932056</v>
+        <v>0.002689431714868172</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.007956215410591263</v>
+        <v>0.01222960497594931</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001516462213513711</v>
+        <v>0.00233097432323645</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0001485194951379407</v>
+        <v>0.0002282912996984152</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0004168968284573775</v>
+        <v>0.0006408176833639724</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001305408194107163</v>
+        <v>0.002006560371033438</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.816815533575829e-06</v>
+        <v>1.201533156307448e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.433082847822235e-05</v>
+        <v>2.202810786563655e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -1860,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.816815533575829e-06</v>
+        <v>1.201533156307448e-05</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -1879,70 +1879,70 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00665211001907303</v>
+        <v>0.01022504716017639</v>
       </c>
       <c r="C14" t="n">
-        <v>1.823923624501027e-05</v>
+        <v>2.80357736471738e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>7.816815533575829e-06</v>
+        <v>1.201533156307448e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001354914692486477</v>
+        <v>0.0002082657470932911</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0001745755469165268</v>
+        <v>0.0002683424049086634</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003576193106610942</v>
+        <v>0.005497014190106576</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003452426860662658</v>
+        <v>0.0005306771440357897</v>
       </c>
       <c r="J14" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.005675008077376051</v>
+        <v>0.008723130714792075</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0005836555598403285</v>
+        <v>0.0008971447567095614</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0001029214045254151</v>
+        <v>0.0001582018655804807</v>
       </c>
       <c r="O14" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0002592577151969316</v>
+        <v>0.0003985084968419703</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.005514763358937746</v>
+        <v>0.008476816417749047</v>
       </c>
       <c r="R14" t="n">
-        <v>7.425974756897037e-05</v>
+        <v>0.0001141456498492076</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.001241570867249627</v>
+        <v>0.00190843516326833</v>
       </c>
       <c r="U14" t="n">
-        <v>4.820369579038427e-05</v>
+        <v>7.409454463895931e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>0.001081326148811323</v>
+        <v>0.001662120866225304</v>
       </c>
       <c r="W14" t="n">
-        <v>1.042242071143444e-05</v>
+        <v>1.602044208409931e-05</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1951,31 +1951,31 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0001823923624501027</v>
+        <v>0.0002803577364717379</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.001016186019364858</v>
+        <v>0.001561993103199683</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.003280456918923989</v>
+        <v>0.005042434145970258</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0009666795209855441</v>
+        <v>0.001485896003300211</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.001633714446517348</v>
+        <v>0.002511204296682567</v>
       </c>
     </row>
     <row r="15">
@@ -1985,22 +1985,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002798419961020147</v>
+        <v>0.004301488699580665</v>
       </c>
       <c r="C15" t="n">
-        <v>1.433082847822235e-05</v>
+        <v>2.202810786563655e-05</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>4.559809061252567e-05</v>
+        <v>7.008943411793448e-05</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00264208365034863</v>
+        <v>0.004061182068319175</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2009,79 +2009,79 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.816815533575829e-06</v>
+        <v>1.201533156307448e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003379469915682616</v>
+        <v>0.005194628345769201</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>7.295694498004106e-05</v>
+        <v>0.0001121430945886952</v>
       </c>
       <c r="N15" t="n">
-        <v>9.640739158076854e-05</v>
+        <v>0.0001481890892779186</v>
       </c>
       <c r="O15" t="n">
-        <v>2.73588543675154e-05</v>
+        <v>4.205366047076069e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001212909210293183</v>
+        <v>0.001864378947537057</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.003270034498212555</v>
+        <v>0.005026413703886159</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0001954203883393957</v>
+        <v>0.0003003832890768621</v>
       </c>
       <c r="S15" t="n">
-        <v>3.908407766787914e-05</v>
+        <v>6.007665781537242e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0001146466278257788</v>
+        <v>0.0001762248629250924</v>
       </c>
       <c r="U15" t="n">
-        <v>3.647847249002053e-05</v>
+        <v>5.607154729434759e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>0.002137899048432989</v>
+        <v>0.003286193182500871</v>
       </c>
       <c r="W15" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.084484142286888e-05</v>
+        <v>3.204088416819862e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.345044660072749e-05</v>
+        <v>3.604599468922345e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0006553097022314403</v>
+        <v>0.001007285296037744</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.908407766787914e-05</v>
+        <v>6.007665781537242e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.996445954537401e-05</v>
+        <v>4.605877099178552e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0004012631973902259</v>
+        <v>0.0006167870202378235</v>
       </c>
     </row>
     <row r="16">
@@ -2091,103 +2091,103 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01044847676321302</v>
+        <v>0.01606049318930956</v>
       </c>
       <c r="C16" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000153730705493658</v>
+        <v>0.0002363015207404648</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000983615954641625</v>
+        <v>0.001511929221686872</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008668848426735593</v>
+        <v>0.0133250027034496</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>2.084484142286888e-05</v>
+        <v>3.204088416819862e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.006886614485080305</v>
+        <v>0.01058550710706862</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.000196723190928325</v>
+        <v>0.0003023858443373745</v>
       </c>
       <c r="N16" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="P16" t="n">
-        <v>0.002668139702127216</v>
+        <v>0.004101233173529424</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.007936673371757325</v>
+        <v>0.01219956664704163</v>
       </c>
       <c r="R16" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>4.559809061252567e-05</v>
+        <v>7.008943411793448e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0005237266407495805</v>
+        <v>0.0008050272147259904</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0004755229449591962</v>
+        <v>0.000730932670087031</v>
       </c>
       <c r="V16" t="n">
-        <v>0.002226489624480182</v>
+        <v>0.003422366940215715</v>
       </c>
       <c r="W16" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0004716145371924083</v>
+        <v>0.0007249250043054939</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0002188708349401232</v>
+        <v>0.0003364292837660855</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.126726213430332e-05</v>
+        <v>4.806132625229793e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0001315830614818598</v>
+        <v>0.0002022580813117538</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.002889616142245198</v>
+        <v>0.004441667567816534</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.001004460796064494</v>
+        <v>0.001543970105855071</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.000136794271837577</v>
+        <v>0.0002102683023538035</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.002739793844518328</v>
+        <v>0.004211373712857606</v>
       </c>
     </row>
     <row r="17">
@@ -2197,85 +2197,85 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.302802588929305e-05</v>
+        <v>2.002555260512414e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003100670161651745</v>
+        <v>0.004766081520019545</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007379073863695582</v>
+        <v>0.01134247299554231</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004299248543466706</v>
+        <v>0.006608432359690965</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004174179494929492</v>
+        <v>0.006416187054681774</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002221278414124464</v>
+        <v>0.003414356719173665</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001489103359146195</v>
+        <v>0.002288920662765689</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0008272796439701085</v>
+        <v>0.001271622590425383</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0008129488154918861</v>
+        <v>0.001249594482559746</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003640030433468478</v>
+        <v>0.005595139397871684</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001482589346201549</v>
+        <v>0.002278907886463127</v>
       </c>
       <c r="N17" t="n">
-        <v>0.006430633578955048</v>
+        <v>0.009884612765889275</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004862059261884166</v>
+        <v>0.007473536232232328</v>
       </c>
       <c r="P17" t="n">
-        <v>0.006422816763421472</v>
+        <v>0.0098725974343262</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0001433082847822235</v>
+        <v>0.0002202810786563655</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001022700032309504</v>
+        <v>0.001572005879502245</v>
       </c>
       <c r="S17" t="n">
-        <v>0.005770112666367891</v>
+        <v>0.008869317248809482</v>
       </c>
       <c r="T17" t="n">
-        <v>0.006284719688994966</v>
+        <v>0.009660326576711885</v>
       </c>
       <c r="U17" t="n">
-        <v>0.006431936381543977</v>
+        <v>0.009886615321149787</v>
       </c>
       <c r="V17" t="n">
-        <v>5.47177087350308e-05</v>
+        <v>8.410732094152138e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0002592577151969316</v>
+        <v>0.0003985084968419703</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0005419658769945907</v>
+        <v>0.0008330629883731642</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.728777345826341e-05</v>
+        <v>0.0001341712024543317</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.001275443734561789</v>
+        <v>0.001960501600041653</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.001094354174700616</v>
+        <v>0.001682146418830428</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0001289774563040012</v>
+        <v>0.000198252970790729</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.605605177858609e-05</v>
+        <v>4.005110521024828e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0005823527572513992</v>
+        <v>0.000895142201449049</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0006162256245635611</v>
+        <v>0.0009472086382223717</v>
       </c>
     </row>
     <row r="18">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001065692517744171</v>
+        <v>0.001638090203099154</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002320291410883092</v>
+        <v>0.003566550918972609</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0007491114886343502</v>
+        <v>0.001151469274794638</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>5.47177087350308e-05</v>
+        <v>8.410732094152138e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0005914723753739044</v>
+        <v>0.0009091600882726358</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.341490614610149e-05</v>
+        <v>8.210476568100896e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.008121671339385286</v>
+        <v>0.01248392949403439</v>
       </c>
       <c r="R18" t="n">
-        <v>5.080930096824288e-05</v>
+        <v>7.809965515998414e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005783140692257184</v>
+        <v>0.008889342801414605</v>
       </c>
       <c r="T18" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="U18" t="n">
-        <v>3.517566990109122e-05</v>
+        <v>5.406899203383518e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0005745359417178233</v>
+        <v>0.0008831268698859745</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2372,34 +2372,34 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.345044660072749e-05</v>
+        <v>3.604599468922345e-05</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.000209751216817618</v>
+        <v>0.0003224113969424986</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0007478086860454209</v>
+        <v>0.001149466719534125</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0003283062524101848</v>
+        <v>0.0005046439256491282</v>
       </c>
     </row>
     <row r="19">
@@ -2409,103 +2409,103 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.007820723941342617</v>
+        <v>0.01202133922885602</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001563363106715166</v>
+        <v>0.0002403066312614897</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000320489436876609</v>
+        <v>0.0004926285940860538</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0002944333850980229</v>
+        <v>0.0004525774888758055</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003608763171334174</v>
+        <v>0.0005547078071619386</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005716697760221789</v>
+        <v>0.008787212483128472</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003296090549991141</v>
+        <v>0.0005066464809096407</v>
       </c>
       <c r="J19" t="n">
-        <v>4.950649837931358e-05</v>
+        <v>7.609709989947172e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.004933713404275277</v>
+        <v>0.007583676771560511</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0002058428090508302</v>
+        <v>0.0003164037311609614</v>
       </c>
       <c r="N19" t="n">
-        <v>7.686535274682898e-05</v>
+        <v>0.0001181507603702324</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0001849979676279613</v>
+        <v>0.0002843628469927628</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0006058032038521267</v>
+        <v>0.0009311881961382724</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.006431936381543977</v>
+        <v>0.009886615321149787</v>
       </c>
       <c r="R19" t="n">
-        <v>3.257006472323262e-05</v>
+        <v>5.006388151281034e-05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.954203883393957e-05</v>
+        <v>3.003832890768621e-05</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0002332016634183455</v>
+        <v>0.0003584573916317221</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0005888667701960458</v>
+        <v>0.000905154977751611</v>
       </c>
       <c r="V19" t="n">
-        <v>0.002700709766850449</v>
+        <v>0.004151297055042234</v>
       </c>
       <c r="W19" t="n">
-        <v>2.084484142286888e-05</v>
+        <v>3.204088416819862e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>9.380178640290995e-05</v>
+        <v>0.0001441839787568938</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.904853721325315e-05</v>
+        <v>0.0001061354288071579</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.816815533575828e-05</v>
+        <v>0.0001201533156307448</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0002579549126080023</v>
+        <v>0.0003965059415814579</v>
       </c>
       <c r="AB19" t="n">
-        <v>4.820369579038427e-05</v>
+        <v>7.409454463895931e-05</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.001450019281478316</v>
+        <v>0.002228844004950316</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0008898141682387151</v>
+        <v>0.001367745242929979</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0001745755469165268</v>
+        <v>0.0002683424049086634</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.0008819973527051393</v>
+        <v>0.001355729911366904</v>
       </c>
     </row>
     <row r="20">
@@ -2515,103 +2515,103 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001351006284719689</v>
+        <v>0.002076649805151373</v>
       </c>
       <c r="C20" t="n">
-        <v>3.257006472323262e-05</v>
+        <v>5.006388151281034e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001739241456220622</v>
+        <v>0.002673411272784072</v>
       </c>
       <c r="E20" t="n">
-        <v>1.954203883393957e-05</v>
+        <v>3.003832890768621e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0003178838316987504</v>
+        <v>0.0004886234835650289</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003272640103390413</v>
+        <v>0.005030418814407183</v>
       </c>
       <c r="H20" t="n">
-        <v>3.778127507894984e-05</v>
+        <v>5.807410255486e-05</v>
       </c>
       <c r="I20" t="n">
-        <v>2.214764401179818e-05</v>
+        <v>3.404343942871104e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.605605177858609e-05</v>
+        <v>4.005110521024828e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001427871637466518</v>
+        <v>0.002194800565521605</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004498577339572889</v>
+        <v>0.006914823314549365</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00223039803224697</v>
+        <v>0.003428374605997252</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0008898141682387151</v>
+        <v>0.001367745242929979</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0007165414239111176</v>
+        <v>0.001101405393281828</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.002629055624459337</v>
+        <v>0.004041156515714051</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001619383618039126</v>
+        <v>0.00248917618881693</v>
       </c>
       <c r="S20" t="n">
-        <v>0.000226687650473699</v>
+        <v>0.00034844461532916</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0007777731455907949</v>
+        <v>0.001195525490525911</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01054618695738272</v>
+        <v>0.01621068483384799</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0006696405307096626</v>
+        <v>0.001029313403903381</v>
       </c>
       <c r="W20" t="n">
-        <v>2.345044660072749e-05</v>
+        <v>3.604599468922345e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0001810895598611733</v>
+        <v>0.0002783551812112255</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.475324918965679e-05</v>
+        <v>3.804854994973586e-05</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0003582707119555588</v>
+        <v>0.0005507026966409138</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.383732685753593e-05</v>
+        <v>9.812520776510827e-05</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.214764401179818e-05</v>
+        <v>3.404343942871104e-05</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0003569679093666295</v>
+        <v>0.0005487001413804014</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.002870074103411258</v>
+        <v>0.004411629238908848</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0001224634433593546</v>
+        <v>0.0001882401944881669</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.002743702252285116</v>
+        <v>0.004217381378639144</v>
       </c>
     </row>
     <row r="21">
@@ -2621,103 +2621,103 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005390997112989463</v>
+        <v>0.008286573668000369</v>
       </c>
       <c r="C21" t="n">
-        <v>2.345044660072749e-05</v>
+        <v>3.604599468922345e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002279904530626283</v>
+        <v>0.003504471705896724</v>
       </c>
       <c r="E21" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0001146466278257788</v>
+        <v>0.0001762248629250924</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004204143954474866</v>
+        <v>0.006462245825673559</v>
       </c>
       <c r="H21" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="I21" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003164507488509281</v>
+        <v>0.004864206727784653</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0004038688025680845</v>
+        <v>0.0006207921307588483</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0002709829384972954</v>
+        <v>0.0004165314941865821</v>
       </c>
       <c r="O21" t="n">
-        <v>2.475324918965679e-05</v>
+        <v>3.804854994973586e-05</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0009041449967169375</v>
+        <v>0.001389773350795615</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01294204091842371</v>
+        <v>0.01989338395793032</v>
       </c>
       <c r="R21" t="n">
-        <v>6.514012944646524e-05</v>
+        <v>0.0001001277630256207</v>
       </c>
       <c r="S21" t="n">
-        <v>0.002596485559736104</v>
+        <v>0.003991092634201241</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0008390048672704722</v>
+        <v>0.001289645587769994</v>
       </c>
       <c r="U21" t="n">
-        <v>8.207656310254619e-05</v>
+        <v>0.0001261609814122821</v>
       </c>
       <c r="V21" t="n">
-        <v>0.001421357624521872</v>
+        <v>0.002184787789219044</v>
       </c>
       <c r="W21" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="X21" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0001328858640707891</v>
+        <v>0.0002042606365722662</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.000166758731382951</v>
+        <v>0.000256327073345589</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.084484142286888e-05</v>
+        <v>3.204088416819862e-05</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.996445954537401e-05</v>
+        <v>4.605877099178552e-05</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.001343189469186113</v>
+        <v>0.002064634473588299</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.005187759909116491</v>
+        <v>0.007974175047360432</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.992891909074802e-05</v>
+        <v>9.211754198357103e-05</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.000440347275058105</v>
+        <v>0.0006768636780531958</v>
       </c>
     </row>
     <row r="22">
@@ -2727,85 +2727,85 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.693643365608096e-05</v>
+        <v>2.603321838666138e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005198182329827926</v>
+        <v>0.0007990195489444531</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0008090404077250983</v>
+        <v>0.001243586816778209</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001107382200589909</v>
+        <v>0.001702171971435552</v>
       </c>
       <c r="F22" t="n">
-        <v>0.001680615339718803</v>
+        <v>0.002583296286061014</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001915119805726078</v>
+        <v>0.0002943756232953248</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001179036342981021</v>
+        <v>0.001812312510763734</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0006149228219746319</v>
+        <v>0.0009452060829618594</v>
       </c>
       <c r="K22" t="n">
-        <v>1.172522330036374e-05</v>
+        <v>1.802299734461172e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>8.728777345826341e-05</v>
+        <v>0.0001341712024543317</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0008142516180808155</v>
+        <v>0.001251597037820259</v>
       </c>
       <c r="N22" t="n">
-        <v>0.001284563352684294</v>
+        <v>0.00197451948686524</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0009054477993058668</v>
+        <v>0.001391775906056128</v>
       </c>
       <c r="P22" t="n">
-        <v>0.000273588543675154</v>
+        <v>0.0004205366047076069</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.172522330036374e-05</v>
+        <v>1.802299734461172e-05</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0005224238381606512</v>
+        <v>0.0008030246594654779</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0006097116116189146</v>
+        <v>0.0009371958619198097</v>
       </c>
       <c r="T22" t="n">
-        <v>0.001211606407704253</v>
+        <v>0.001862376392276545</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001261112906083567</v>
+        <v>0.001938473492176017</v>
       </c>
       <c r="V22" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="W22" t="n">
-        <v>1.433082847822235e-05</v>
+        <v>2.202810786563655e-05</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0003113698187541038</v>
+        <v>0.0004786107072624669</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0007334778575671985</v>
+        <v>0.001127438611668489</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0006865769643657436</v>
+        <v>0.001055346622290042</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.000226687650473699</v>
+        <v>0.00034844461532916</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.73588543675154e-05</v>
+        <v>4.205366047076069e-05</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0009158702200173012</v>
+        <v>0.001407796348140227</v>
       </c>
       <c r="AH22" t="n">
-        <v>6.774573462432384e-05</v>
+        <v>0.0001041328735466455</v>
       </c>
     </row>
     <row r="23">
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001459138899600821</v>
+        <v>0.0002242861891773904</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001420054821932942</v>
+        <v>0.0002182785233958531</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2860,43 +2860,43 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0004963677863820651</v>
+        <v>0.0007629735542552297</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>5.211210355717219e-06</v>
+        <v>8.010221042049655e-06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.690089320145497e-05</v>
+        <v>7.20919893784469e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.950649837931358e-05</v>
+        <v>7.609709989947172e-05</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0003908407766787914</v>
+        <v>0.0006007665781537242</v>
       </c>
       <c r="T23" t="n">
-        <v>1.042242071143444e-05</v>
+        <v>1.602044208409931e-05</v>
       </c>
       <c r="U23" t="n">
-        <v>1.042242071143444e-05</v>
+        <v>1.602044208409931e-05</v>
       </c>
       <c r="V23" t="n">
-        <v>6.644293203539454e-05</v>
+        <v>0.0001021303182861331</v>
       </c>
       <c r="W23" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2917,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.172522330036374e-05</v>
+        <v>1.802299734461172e-05</v>
       </c>
       <c r="AE23" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0008846029578829979</v>
+        <v>0.001359735021887929</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001380970744265063</v>
+        <v>0.0002122708576143159</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.257006472323262e-05</v>
+        <v>5.006388151281034e-05</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001615475210272338</v>
+        <v>0.0002483168523035393</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2975,31 +2975,31 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>7.165414239111176e-05</v>
+        <v>0.0001101405393281828</v>
       </c>
       <c r="O24" t="n">
-        <v>4.690089320145497e-05</v>
+        <v>7.20919893784469e-05</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0001276746537150719</v>
+        <v>0.0001962504155302165</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.002199130770112666</v>
+        <v>0.003380313279744954</v>
       </c>
       <c r="R24" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="S24" t="n">
-        <v>9.901299675862715e-05</v>
+        <v>0.0001521941997989434</v>
       </c>
       <c r="T24" t="n">
-        <v>4.429528802359636e-05</v>
+        <v>6.808687885742207e-05</v>
       </c>
       <c r="U24" t="n">
-        <v>2.214764401179818e-05</v>
+        <v>3.404343942871104e-05</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0001185550355925667</v>
+        <v>0.0001822325287066297</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -3014,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3045,22 +3045,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0006031975986742681</v>
+        <v>0.0009271830856172476</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.433082847822235e-05</v>
+        <v>2.202810786563655e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0008780889449383514</v>
+        <v>0.001349722245585367</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002123568219954767</v>
+        <v>0.0003264165074635235</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0001211606407704253</v>
+        <v>0.0001862376392276545</v>
       </c>
       <c r="N25" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0003361230679437606</v>
+        <v>0.0005166592572122028</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3099,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="U25" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="V25" t="n">
-        <v>0.00039344638185665</v>
+        <v>0.000604771688674749</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0001289774563040012</v>
+        <v>0.000198252970790729</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001921633818670724</v>
+        <v>0.00295376900925581</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00297950952088132</v>
+        <v>0.00457984388079189</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3178,40 +3178,40 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001296288575984658</v>
+        <v>0.001992542484209852</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0002175680323511939</v>
+        <v>0.0003344267285055731</v>
       </c>
       <c r="N26" t="n">
-        <v>4.038688025680845e-05</v>
+        <v>6.207921307588483e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="P26" t="n">
-        <v>0.000470311734603479</v>
+        <v>0.0007229224490449814</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.168968284573775e-05</v>
+        <v>6.408176833639724e-05</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.475324918965679e-05</v>
+        <v>3.804854994973586e-05</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.003379469915682616</v>
+        <v>0.005194628345769201</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0005927751779628336</v>
+        <v>0.0009111626435331483</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.077376051361689e-05</v>
+        <v>0.0001241584261517697</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0001654559287940217</v>
+        <v>0.0002543245180850766</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -3257,13 +3257,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001365337113197911</v>
+        <v>0.00209867791301701</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.084484142286888e-05</v>
+        <v>3.204088416819862e-05</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3272,52 +3272,52 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002057125287919372</v>
+        <v>0.003162034756349102</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.001710579799264177</v>
+        <v>0.002629355057052799</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.000453375300947398</v>
+        <v>0.00069688923065832</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0004416500776470343</v>
+        <v>0.0006788662333137083</v>
       </c>
       <c r="O27" t="n">
-        <v>1.954203883393957e-05</v>
+        <v>3.003832890768621e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>0.000363481922311276</v>
+        <v>0.0005587129176829634</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0002501380970744265</v>
+        <v>0.0003844906100183834</v>
       </c>
       <c r="R27" t="n">
-        <v>2.475324918965679e-05</v>
+        <v>3.804854994973586e-05</v>
       </c>
       <c r="S27" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="T27" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="U27" t="n">
-        <v>9.380178640290995e-05</v>
+        <v>0.0001441839787568938</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0003217922394655383</v>
+        <v>0.0004946311493465662</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0003009473980426694</v>
+        <v>0.0004625902651783676</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.816815533575829e-06</v>
+        <v>1.201533156307448e-05</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0003647847249002053</v>
+        <v>0.0005607154729434759</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001158191501558152</v>
+        <v>0.001780271626595536</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0006487956892867937</v>
+        <v>0.0009972725197351822</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.73588543675154e-05</v>
+        <v>4.205366047076069e-05</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.904853721325315e-05</v>
+        <v>0.0001061354288071579</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -3450,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.693643365608096e-05</v>
+        <v>2.603321838666138e-05</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0002019344012840422</v>
+        <v>0.0003103960653794242</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.119618122505134e-05</v>
+        <v>0.000140178868235869</v>
       </c>
       <c r="AH29" t="n">
-        <v>6.383732685753593e-05</v>
+        <v>9.812520776510827e-05</v>
       </c>
     </row>
     <row r="30">
@@ -3578,82 +3578,82 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004351360647023878</v>
+        <v>0.0006688534570111462</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0009458346795626752</v>
+        <v>0.001453855119132012</v>
       </c>
       <c r="E30" t="n">
-        <v>9.510458899183924e-05</v>
+        <v>0.0001461865340174062</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0001081326148811323</v>
+        <v>0.0001662120866225304</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0009757991391080493</v>
+        <v>0.001499913890123798</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.345044660072749e-05</v>
+        <v>3.604599468922345e-05</v>
       </c>
       <c r="J30" t="n">
-        <v>4.950649837931358e-05</v>
+        <v>7.609709989947172e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>1.042242071143444e-05</v>
+        <v>1.602044208409931e-05</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00142396322969973</v>
+        <v>0.002188792899740068</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001771811520943854</v>
+        <v>0.0002723475154296883</v>
       </c>
       <c r="N30" t="n">
-        <v>0.002259059689203414</v>
+        <v>0.003472430821728526</v>
       </c>
       <c r="O30" t="n">
-        <v>0.00142396322969973</v>
+        <v>0.002188792899740068</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0002879193721533763</v>
+        <v>0.0004425647125732435</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0001081326148811323</v>
+        <v>0.0001662120866225304</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0002579549126080023</v>
+        <v>0.0003965059415814579</v>
       </c>
       <c r="T30" t="n">
-        <v>0.000670943333298592</v>
+        <v>0.001031315959163893</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0005224238381606512</v>
+        <v>0.0008030246594654779</v>
       </c>
       <c r="V30" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0009367150614401701</v>
+        <v>0.001439837232308426</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.771019416969786e-05</v>
+        <v>0.000150191644538431</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0005263322459274391</v>
+        <v>0.0008090323252470152</v>
       </c>
       <c r="AB30" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -3681,22 +3681,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001354914692486477</v>
+        <v>0.0002082657470932911</v>
       </c>
       <c r="D31" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>3.647847249002053e-05</v>
+        <v>5.607154729434759e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>7.165414239111176e-05</v>
+        <v>0.0001101405393281828</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001087840161755969</v>
+        <v>0.001672133642527865</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3705,28 +3705,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0001120410226479202</v>
+        <v>0.0001722197524040676</v>
       </c>
       <c r="K31" t="n">
-        <v>9.901299675862715e-05</v>
+        <v>0.0001521941997989434</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001039636465965585</v>
+        <v>0.001598039097888906</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0002709829384972954</v>
+        <v>0.0004165314941865821</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0009614683106298269</v>
+        <v>0.001477885782258161</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.950649837931358e-05</v>
+        <v>7.609709989947172e-05</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3735,31 +3735,31 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0008702721294047756</v>
+        <v>0.001337706914022292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0001016186019364858</v>
+        <v>0.0001561993103199683</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.640739158076854e-05</v>
+        <v>0.0001481890892779186</v>
       </c>
       <c r="Z31" t="n">
-        <v>4.559809061252567e-05</v>
+        <v>7.008943411793448e-05</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0003739043430227104</v>
+        <v>0.0005747333597670627</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -3774,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0003595735145444881</v>
+        <v>0.0005527052519014263</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0004468612880027515</v>
+        <v>0.000686876454355758</v>
       </c>
     </row>
     <row r="32">
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>5.211210355717219e-06</v>
+        <v>8.010221042049655e-06</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3811,58 +3811,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.302802588929305e-05</v>
+        <v>2.002555260512414e-05</v>
       </c>
       <c r="M32" t="n">
-        <v>3.908407766787914e-05</v>
+        <v>6.007665781537242e-05</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0001003157993475565</v>
+        <v>0.0001541967550594559</v>
       </c>
       <c r="O32" t="n">
-        <v>9.119618122505133e-06</v>
+        <v>1.40178868235869e-05</v>
       </c>
       <c r="P32" t="n">
-        <v>3.778127507894984e-05</v>
+        <v>5.807410255486e-05</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.172522330036374e-05</v>
+        <v>1.802299734461172e-05</v>
       </c>
       <c r="S32" t="n">
-        <v>3.387286731216192e-05</v>
+        <v>5.206643677332276e-05</v>
       </c>
       <c r="T32" t="n">
-        <v>3.778127507894984e-05</v>
+        <v>5.807410255486e-05</v>
       </c>
       <c r="U32" t="n">
-        <v>0.002200433572701596</v>
+        <v>0.003382315835005467</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="X32" t="n">
-        <v>5.211210355717219e-06</v>
+        <v>8.010221042049655e-06</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -3893,31 +3893,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0004637977216588325</v>
+        <v>0.0007129096727424193</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0003322146601769727</v>
+        <v>0.0005106515914306655</v>
       </c>
       <c r="G33" t="n">
-        <v>1.302802588929305e-06</v>
+        <v>2.002555260512414e-06</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.042242071143444e-05</v>
+        <v>1.602044208409931e-05</v>
       </c>
       <c r="J33" t="n">
-        <v>3.387286731216192e-05</v>
+        <v>5.206643677332276e-05</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3926,31 +3926,31 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.823923624501027e-05</v>
+        <v>2.80357736471738e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>7.295694498004106e-05</v>
+        <v>0.0001121430945886952</v>
       </c>
       <c r="O33" t="n">
-        <v>3.387286731216192e-05</v>
+        <v>5.206643677332276e-05</v>
       </c>
       <c r="P33" t="n">
-        <v>4.429528802359636e-05</v>
+        <v>6.808687885742207e-05</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.908407766787914e-06</v>
+        <v>6.007665781537241e-06</v>
       </c>
       <c r="S33" t="n">
-        <v>4.559809061252567e-05</v>
+        <v>7.008943411793448e-05</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0001354914692486477</v>
+        <v>0.0002082657470932911</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0003426370808884072</v>
+        <v>0.0005266720335147648</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3959,19 +3959,19 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>5.211210355717219e-06</v>
+        <v>8.010221042049655e-06</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.605605177858609e-05</v>
+        <v>4.005110521024828e-05</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.035133980218245e-05</v>
+        <v>0.0001081379840676704</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0001433082847822235</v>
+        <v>0.0002202810786563655</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0004077772103348724</v>
+        <v>0.0006267997965403856</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>4.299248543466706e-05</v>
+        <v>6.608432359690966e-05</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -4002,82 +4002,82 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.299248543466706e-05</v>
+        <v>6.608432359690966e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0002540465048412144</v>
+        <v>0.0003904982757999207</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001693643365608096</v>
+        <v>0.0002603321838666138</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0006409788737532179</v>
+        <v>0.0009852571881721077</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0001042242071143444</v>
+        <v>0.0001602044208409931</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0004195024336352361</v>
+        <v>0.0006448227938849972</v>
       </c>
       <c r="J34" t="n">
-        <v>0.001227240038771405</v>
+        <v>0.001886407055402694</v>
       </c>
       <c r="K34" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>2.86616569564447e-05</v>
+        <v>4.40562157312731e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>8.46821682804048e-05</v>
+        <v>0.0001301660919333069</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0007934067766579466</v>
+        <v>0.00121955615365206</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0003322146601769727</v>
+        <v>0.0005106515914306655</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0006201340323303491</v>
+        <v>0.000953216304003909</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.563363106715166e-05</v>
+        <v>2.403066312614896e-05</v>
       </c>
       <c r="S34" t="n">
-        <v>3.908407766787914e-05</v>
+        <v>6.007665781537242e-05</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0007738647378240071</v>
+        <v>0.001189517824744374</v>
       </c>
       <c r="U34" t="n">
-        <v>0.001332767048474679</v>
+        <v>0.002048614031504199</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>2.605605177858609e-06</v>
+        <v>4.005110521024828e-06</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0001472166925490114</v>
+        <v>0.0002262887444379028</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.690089320145497e-05</v>
+        <v>7.20919893784469e-05</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0001459138899600821</v>
+        <v>0.0002242861891773904</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.514012944646523e-06</v>
+        <v>1.001277630256207e-05</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0001706671391497389</v>
+        <v>0.0002623347391271262</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -4092,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0001094354174700616</v>
+        <v>0.0001682146418830428</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.0001576391132604459</v>
+        <v>0.0002423091865220021</v>
       </c>
     </row>
   </sheetData>
